--- a/sample_users.xlsx
+++ b/sample_users.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610590cbf95aee3/Desktop/Darsh/thesis-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DC5E2C1F-4682-4CFB-953B-1D88274790A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE7076C-99EC-474B-92E7-BE385DBC394B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{DC5E2C1F-4682-4CFB-953B-1D88274790A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1FF465-0D1E-4596-BBBD-9256BC529E1D}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8312DD47-3CCB-43BC-A33E-BB7578786893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -47,47 +50,263 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Dr. Ahmed</t>
-  </si>
-  <si>
-    <t>ahmed@guc.edu.eg</t>
+    <t>REVIEWER</t>
+  </si>
+  <si>
+    <t>PT_SUPERVISOR</t>
   </si>
   <si>
     <t>FT_SUPERVISOR</t>
   </si>
   <si>
-    <t>Dr. Mona</t>
-  </si>
-  <si>
-    <t>mona@guc.edu.eg</t>
-  </si>
-  <si>
-    <t>REVIEWER</t>
-  </si>
-  <si>
-    <t>Dr. Hossam</t>
-  </si>
-  <si>
-    <t>hossam@guc.edu.eg</t>
-  </si>
-  <si>
-    <t>Dr. Rania</t>
-  </si>
-  <si>
-    <t>rania@guc.edu.eg</t>
-  </si>
-  <si>
-    <t>Dr. Darsh</t>
-  </si>
-  <si>
-    <t>darsh@guc.edu.eg</t>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>FT Supervisor 1</t>
+  </si>
+  <si>
+    <t>ft1@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 2</t>
+  </si>
+  <si>
+    <t>ft2@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 3</t>
+  </si>
+  <si>
+    <t>ft3@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 4</t>
+  </si>
+  <si>
+    <t>ft4@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 5</t>
+  </si>
+  <si>
+    <t>ft5@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 6</t>
+  </si>
+  <si>
+    <t>ft6@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 7</t>
+  </si>
+  <si>
+    <t>ft7@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 8</t>
+  </si>
+  <si>
+    <t>ft8@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 9</t>
+  </si>
+  <si>
+    <t>ft9@example.com</t>
+  </si>
+  <si>
+    <t>FT Supervisor 10</t>
+  </si>
+  <si>
+    <t>ft10@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 1</t>
+  </si>
+  <si>
+    <t>pt1@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 2</t>
+  </si>
+  <si>
+    <t>pt2@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 3</t>
+  </si>
+  <si>
+    <t>pt3@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 4</t>
+  </si>
+  <si>
+    <t>pt4@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 5</t>
+  </si>
+  <si>
+    <t>pt5@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 6</t>
+  </si>
+  <si>
+    <t>pt6@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 7</t>
+  </si>
+  <si>
+    <t>pt7@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 8</t>
+  </si>
+  <si>
+    <t>pt8@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 9</t>
+  </si>
+  <si>
+    <t>pt9@example.com</t>
+  </si>
+  <si>
+    <t>PT Supervisor 10</t>
+  </si>
+  <si>
+    <t>pt10@example.com</t>
+  </si>
+  <si>
+    <t>Both 1</t>
+  </si>
+  <si>
+    <t>both1@example.com</t>
+  </si>
+  <si>
+    <t>Both 2</t>
+  </si>
+  <si>
+    <t>both2@example.com</t>
+  </si>
+  <si>
+    <t>Both 3</t>
+  </si>
+  <si>
+    <t>both3@example.com</t>
+  </si>
+  <si>
+    <t>Both 4</t>
+  </si>
+  <si>
+    <t>both4@example.com</t>
+  </si>
+  <si>
+    <t>Both 5</t>
+  </si>
+  <si>
+    <t>both5@example.com</t>
+  </si>
+  <si>
+    <t>Both 6</t>
+  </si>
+  <si>
+    <t>both6@example.com</t>
+  </si>
+  <si>
+    <t>Both 7</t>
+  </si>
+  <si>
+    <t>both7@example.com</t>
+  </si>
+  <si>
+    <t>Both 8</t>
+  </si>
+  <si>
+    <t>both8@example.com</t>
+  </si>
+  <si>
+    <t>Both 9</t>
+  </si>
+  <si>
+    <t>both9@example.com</t>
+  </si>
+  <si>
+    <t>Both 10</t>
+  </si>
+  <si>
+    <t>both10@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 1</t>
+  </si>
+  <si>
+    <t>rev1@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 2</t>
+  </si>
+  <si>
+    <t>rev2@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 3</t>
+  </si>
+  <si>
+    <t>rev3@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 4</t>
+  </si>
+  <si>
+    <t>rev4@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 5</t>
+  </si>
+  <si>
+    <t>rev5@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 6</t>
+  </si>
+  <si>
+    <t>rev6@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 7</t>
+  </si>
+  <si>
+    <t>rev7@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 8</t>
+  </si>
+  <si>
+    <t>rev8@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 9</t>
+  </si>
+  <si>
+    <t>rev9@example.com</t>
+  </si>
+  <si>
+    <t>Reviewer 10</t>
+  </si>
+  <si>
+    <t>rev10@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,14 +318,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,11 +340,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,12 +351,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,17 +689,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F7CC1-1E29-49A6-BFB0-78FB543407D2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1015625" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="20.3671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -509,10 +715,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -520,32 +726,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -553,19 +759,442 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{DB8010AE-EC9C-4B2E-BC1F-DB8AF5D2B1E3}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:C49" xr:uid="{3A2F7CC1-1E29-49A6-BFB0-78FB543407D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_users.xlsx
+++ b/sample_users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610590cbf95aee3/Desktop/Darsh/thesis-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{DC5E2C1F-4682-4CFB-953B-1D88274790A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1FF465-0D1E-4596-BBBD-9256BC529E1D}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{DC5E2C1F-4682-4CFB-953B-1D88274790A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB017FF-1A52-4E04-8293-4CB1E23E8E17}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{8312DD47-3CCB-43BC-A33E-BB7578786893}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>REVIEWER</t>
   </si>
   <si>
-    <t>PT_SUPERVISOR</t>
-  </si>
-  <si>
     <t>FT_SUPERVISOR</t>
   </si>
   <si>
@@ -120,66 +117,6 @@
   </si>
   <si>
     <t>ft10@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 1</t>
-  </si>
-  <si>
-    <t>pt1@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 2</t>
-  </si>
-  <si>
-    <t>pt2@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 3</t>
-  </si>
-  <si>
-    <t>pt3@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 4</t>
-  </si>
-  <si>
-    <t>pt4@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 5</t>
-  </si>
-  <si>
-    <t>pt5@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 6</t>
-  </si>
-  <si>
-    <t>pt6@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 7</t>
-  </si>
-  <si>
-    <t>pt7@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 8</t>
-  </si>
-  <si>
-    <t>pt8@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 9</t>
-  </si>
-  <si>
-    <t>pt9@example.com</t>
-  </si>
-  <si>
-    <t>PT Supervisor 10</t>
-  </si>
-  <si>
-    <t>pt10@example.com</t>
   </si>
   <si>
     <t>Both 1</t>
@@ -689,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2F7CC1-1E29-49A6-BFB0-78FB543407D2}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -715,486 +652,376 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C49" xr:uid="{3A2F7CC1-1E29-49A6-BFB0-78FB543407D2}"/>
+  <autoFilter ref="A1:C39" xr:uid="{3A2F7CC1-1E29-49A6-BFB0-78FB543407D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>